--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -14,7 +14,7 @@
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
     <sheet name="애니메이션 리스트" sheetId="1" r:id="rId2"/>
-    <sheet name="Sheet1" sheetId="3" r:id="rId3"/>
+    <sheet name="FSM" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,14 +172,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대각선 이동[왼쪽]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>대각선 이동[오른쪽]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뒤로 회전</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -189,6 +181,22 @@
   </si>
   <si>
     <t>전방 대쉬만 존재</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동만 추가 한 상태, 주말에 다 추가 할 예정</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>반대편으로 이동 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대각선 삭제, 매달리기, 로테이션 모션 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매달리기 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -340,16 +348,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>333375</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>228600</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>133350</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -358,8 +366,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="10534650" y="1952625"/>
-          <a:ext cx="4019550" cy="1771650"/>
+          <a:off x="8058150" y="1743075"/>
+          <a:ext cx="4019550" cy="1628775"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -388,6 +396,13 @@
           <a:pPr algn="l"/>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2019-03-22</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
             <a:t>1. </a:t>
           </a:r>
           <a:r>
@@ -456,6 +471,208 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>238125</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>171450</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>142875</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8067675" y="3524250"/>
+          <a:ext cx="4019550" cy="1628775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2019-03-23</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>1.  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>대각선 모션 삭제</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>2. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>로테이션 수정</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
+            <a:t>3. </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
+            <a:t>매달리기 추가</a:t>
+          </a:r>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>657224</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>38099</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="직사각형 4"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="657224" y="2819400"/>
+          <a:ext cx="5838825" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="86000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
+            <a:t>혐의중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>647700</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>149982</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>50284</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="그림 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="647700" y="571500"/>
+          <a:ext cx="3617082" cy="3041134"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -727,7 +944,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G29" sqref="G29"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -735,7 +952,7 @@
     <col min="1" max="1" width="4.125" customWidth="1"/>
     <col min="2" max="2" width="13.5" style="8" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="8" customWidth="1"/>
-    <col min="4" max="4" width="29.875" style="8" customWidth="1"/>
+    <col min="4" max="4" width="42.5" style="8" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
@@ -777,9 +994,15 @@
       <c r="E4" s="1"/>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="7"/>
-      <c r="C5" s="7"/>
-      <c r="D5" s="7"/>
+      <c r="B5" s="6">
+        <v>43547</v>
+      </c>
+      <c r="C5" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
@@ -817,7 +1040,7 @@
   <dimension ref="B3:D31"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -946,57 +1169,57 @@
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="C19" s="1"/>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+    </row>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>19</v>
+        <v>42</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
@@ -1018,10 +1241,10 @@
     </row>
     <row r="31" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B31" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="1"/>
     </row>
@@ -1035,13 +1258,22 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B2"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="J6" sqref="J6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>39</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,12 +9,14 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
     <sheet name="애니메이션 리스트" sheetId="1" r:id="rId2"/>
-    <sheet name="FSM" sheetId="3" r:id="rId3"/>
+    <sheet name="이동형 몬스터" sheetId="4" r:id="rId3"/>
+    <sheet name="고정형 몬스터" sheetId="5" r:id="rId4"/>
+    <sheet name="FSM" sheetId="3" r:id="rId5"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -26,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -184,10 +186,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동만 추가 한 상태, 주말에 다 추가 할 예정</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>반대편으로 이동 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -196,7 +194,119 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>매달리기 추가</t>
+    <t>채공</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공중에서 내려오는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매달리기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매달리기[점프]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>애니메이션 리스트</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트롤</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 풀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동[추적]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 안됨[추적]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 차지</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>멈쳐있을시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동 시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 당할시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 풀릴시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>플레이어를 인식 할때 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식한 상태에서 이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 후 인식범위내에 플레이어가 있을 시 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 상태에서 플레이어가 시야에서 사라지면 사용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 넣기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 모션 후 플레이어가 범위내에 없을 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>준비 모션 후 플레이어가 범위내에 있을 시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>테이져 건 발사!</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -298,7 +408,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -325,6 +435,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -356,7 +472,7 @@
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -477,13 +593,13 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>171450</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
       <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -569,13 +685,13 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -637,44 +753,71 @@
 
 <file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>647700</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>149982</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>50284</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="그림 2"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="647700" y="571500"/>
-          <a:ext cx="3617082" cy="3041134"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+      <xdr:twoCellAnchor editAs="oneCell">
+        <xdr:from>
+          <xdr:col>3</xdr:col>
+          <xdr:colOff>333375</xdr:colOff>
+          <xdr:row>3</xdr:row>
+          <xdr:rowOff>19050</xdr:rowOff>
+        </xdr:from>
+        <xdr:to>
+          <xdr:col>11</xdr:col>
+          <xdr:colOff>476250</xdr:colOff>
+          <xdr:row>26</xdr:row>
+          <xdr:rowOff>104775</xdr:rowOff>
+        </xdr:to>
+        <xdr:sp macro="" textlink="">
+          <xdr:nvSpPr>
+            <xdr:cNvPr id="2049" name="Object 1" hidden="1">
+              <a:extLst>
+                <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
+                  <a14:compatExt spid="_x0000_s2049"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvSpPr/>
+          </xdr:nvSpPr>
+          <xdr:spPr bwMode="auto">
+            <a:xfrm>
+              <a:off x="0" y="0"/>
+              <a:ext cx="0" cy="0"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+            <a:solidFill>
+              <a:srgbClr val="FFFFFF" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="65"/>
+            </a:solidFill>
+            <a:ln w="9525">
+              <a:solidFill>
+                <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
+              </a:solidFill>
+              <a:prstDash val="solid"/>
+              <a:miter lim="800000"/>
+              <a:headEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
+            </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
+          </xdr:spPr>
+        </xdr:sp>
+        <xdr:clientData/>
+      </xdr:twoCellAnchor>
+    </mc:Choice>
+    <mc:Fallback/>
+  </mc:AlternateContent>
 </xdr:wsDr>
 </file>
 
@@ -944,7 +1087,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="P5" sqref="P5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1001,7 +1144,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1037,10 +1180,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D31"/>
+  <dimension ref="B3:D33"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1111,142 +1254,158 @@
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C11" s="1"/>
+        <v>41</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>14</v>
-      </c>
+        <v>11</v>
+      </c>
+      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="C14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="4"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B15" s="3" t="s">
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="C16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D15" s="3"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="1" t="s">
+      <c r="D16" s="3"/>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="C17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C18" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="D18" s="1"/>
-    </row>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="C19" s="1"/>
+        <v>10</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>12</v>
+      </c>
       <c r="D19" s="1"/>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C20" s="1"/>
       <c r="D20" s="1"/>
     </row>
-    <row r="21" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+    </row>
+    <row r="22" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
     </row>
     <row r="24" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
     </row>
     <row r="26" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="C26" s="1"/>
       <c r="D26" s="1"/>
     </row>
     <row r="27" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>19</v>
       </c>
       <c r="C27" s="1"/>
       <c r="D27" s="1"/>
     </row>
-    <row r="28" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="1"/>
+      <c r="D28" s="1"/>
+    </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="C29" s="1"/>
       <c r="D29" s="1"/>
     </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="2" t="s">
+    <row r="30" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C31" s="1"/>
+      <c r="D31" s="1"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="C30" s="1"/>
-      <c r="D30" s="1"/>
-    </row>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B31" s="2" t="s">
+      <c r="C32" s="1"/>
+      <c r="D32" s="1"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C31" s="1" t="s">
+      <c r="C33" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D31" s="1"/>
+      <c r="D33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1258,22 +1417,283 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B3:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="13.875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>39</v>
-      </c>
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B7" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D9" s="1"/>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D10" s="1"/>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="D11" s="1"/>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D12" s="1"/>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="1"/>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" s="1"/>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D15" s="1"/>
+    </row>
+    <row r="16" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C16" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D16" s="1"/>
+    </row>
+    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B17" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="C17" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" s="1"/>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="1"/>
+    </row>
+    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B19" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C19" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D19" s="1"/>
+    </row>
+    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B20" s="9"/>
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+    </row>
+    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B21" s="9"/>
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+    </row>
+    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B22" s="9"/>
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+    </row>
+    <row r="23" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="9"/>
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+    </row>
+    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+    </row>
+    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B25" s="9"/>
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+    </row>
+    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B26" s="9"/>
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+    </row>
+    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B27" s="9"/>
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+    </row>
+    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B28" s="9"/>
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+    </row>
+    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B29" s="9"/>
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+    </row>
+    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B30" s="9"/>
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+    </row>
+    <row r="31" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="9"/>
+      <c r="C31" s="9"/>
+      <c r="D31" s="9"/>
+    </row>
+    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B32" s="9"/>
+      <c r="C32" s="9"/>
+      <c r="D32" s="9"/>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B33" s="10"/>
+      <c r="C33" s="9"/>
+      <c r="D33" s="9"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="10"/>
+      <c r="C34" s="9"/>
+      <c r="D34" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="K15" sqref="K15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+  <oleObjects>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice Requires="x14">
+        <oleObject progId="Visio.Drawing.11" shapeId="2049" r:id="rId3">
+          <objectPr defaultSize="0" r:id="rId4">
+            <anchor moveWithCells="1">
+              <from>
+                <xdr:col>3</xdr:col>
+                <xdr:colOff>333375</xdr:colOff>
+                <xdr:row>3</xdr:row>
+                <xdr:rowOff>19050</xdr:rowOff>
+              </from>
+              <to>
+                <xdr:col>11</xdr:col>
+                <xdr:colOff>476250</xdr:colOff>
+                <xdr:row>26</xdr:row>
+                <xdr:rowOff>104775</xdr:rowOff>
+              </to>
+            </anchor>
+          </objectPr>
+        </oleObject>
+      </mc:Choice>
+      <mc:Fallback>
+        <oleObject progId="Visio.Drawing.11" shapeId="2049" r:id="rId3"/>
+      </mc:Fallback>
+    </mc:AlternateContent>
+  </oleObjects>
 </worksheet>
 </file>
--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -307,6 +307,14 @@
   </si>
   <si>
     <t>테이져 건 발사!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>혐의 내용 추가, 없는 내용추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>외줄 타기[대기]</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -464,225 +472,6 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>228600</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>133350</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="직사각형 3"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8058150" y="1743075"/>
-          <a:ext cx="4019550" cy="1628775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>2019-03-22</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>1. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>기본 이동 달리기로 변경</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>(</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>걷기 삭제</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>)</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>대쉬 추가</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>3. 2</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>단</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100" baseline="0"/>
-            <a:t>  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100" baseline="0"/>
-            <a:t>점프추가</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t> </a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>4. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>착지 하나로 통합</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>238125</xdr:colOff>
-      <xdr:row>18</xdr:row>
-      <xdr:rowOff>171450</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>12</xdr:col>
-      <xdr:colOff>142875</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="3" name="직사각형 2"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="8067675" y="3524250"/>
-          <a:ext cx="4019550" cy="1628775"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>2019-03-23</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>1.  </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>대각선 모션 삭제</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>2. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>로테이션 수정</a:t>
-          </a:r>
-          <a:endParaRPr lang="en-US" altLang="ko-KR" sz="1100"/>
-        </a:p>
-        <a:p>
-          <a:pPr algn="l"/>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1100"/>
-            <a:t>3. </a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1100"/>
-            <a:t>매달리기 추가</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>657224</xdr:colOff>
       <xdr:row>14</xdr:row>
@@ -703,6 +492,140 @@
         <a:xfrm>
           <a:off x="657224" y="2819400"/>
           <a:ext cx="5838825" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="86000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
+            <a:t>혐의중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="6" name="직사각형 5"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="1457325"/>
+          <a:ext cx="5762626" cy="238125"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="86000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
+            <a:t>혐의중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="695325" y="5334000"/>
+          <a:ext cx="5762626" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,23 +717,10 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
-              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd type="none" w="med" len="med"/>
+              <a:tailEnd/>
             </a:ln>
-            <a:effectLst/>
-            <a:extLst>
-              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
-                <a14:hiddenEffects>
-                  <a:effectLst>
-                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
-                      <a:srgbClr val="808080"/>
-                    </a:outerShdw>
-                  </a:effectLst>
-                </a14:hiddenEffects>
-              </a:ext>
-            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -1087,7 +997,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="P5" sqref="P5"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1149,9 +1059,15 @@
       <c r="E5" s="1"/>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B6" s="7"/>
-      <c r="C6" s="7"/>
-      <c r="D6" s="7"/>
+      <c r="B6" s="6">
+        <v>43551</v>
+      </c>
+      <c r="C6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="D6" s="7" t="s">
+        <v>70</v>
+      </c>
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
@@ -1180,10 +1096,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D33"/>
+  <dimension ref="B3:D34"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="C34" sqref="C34"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1384,28 +1300,35 @@
       <c r="D29" s="1"/>
     </row>
     <row r="30" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>22</v>
+        <v>71</v>
       </c>
       <c r="C31" s="1"/>
       <c r="D31" s="1"/>
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
-        <v>31</v>
+      <c r="B32" s="1" t="s">
+        <v>22</v>
       </c>
       <c r="C32" s="1"/>
       <c r="D32" s="1"/>
     </row>
     <row r="33" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B33" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B34" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="C33" s="1" t="s">
+      <c r="C34" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="1"/>
+      <c r="D34" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1419,7 +1342,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D34"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M15" sqref="M15"/>
     </sheetView>
   </sheetViews>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -154,10 +154,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사다리</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>점프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -315,6 +311,142 @@
   </si>
   <si>
     <t>외줄 타기[대기]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일 명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리[왼손]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리[오른쪽]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Land_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PCr_Fall_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Jump2_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Jump1_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Run_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ReverseMove</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Back</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_RM_Motion_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_B_Rotate_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_R_Climb_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_L_Climb_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Dash_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Left</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Right</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Hang_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Aim_Lock_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Aim_Touch_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Touch_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Aim_Pose_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wall_Hide_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wall_Aim_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wait_Rope_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ride_Rope_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Lock_Motion_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리 대기[왼손]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리 대기[오른쪽]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_L_Climb_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_R_Climb_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 점프[전방]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리는 모션중 점프</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -322,7 +454,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -346,8 +478,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -359,8 +499,14 @@
         <fgColor theme="6"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -407,6 +553,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -416,7 +586,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -450,6 +620,24 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="강조색3" xfId="1" builtinId="37"/>
@@ -472,13 +660,13 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>657224</xdr:colOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
       <xdr:row>14</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
       <xdr:row>17</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
@@ -490,8 +678,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="657224" y="2819400"/>
-          <a:ext cx="5838825" cy="504825"/>
+          <a:off x="1600200" y="3028950"/>
+          <a:ext cx="5800724" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -525,7 +713,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
-            <a:t>혐의중</a:t>
+            <a:t>협의중</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
@@ -539,13 +727,13 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
       <xdr:row>8</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
@@ -592,7 +780,7 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
-            <a:t>혐의중</a:t>
+            <a:t>협의중</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
@@ -606,15 +794,15 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
+      <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>26</xdr:row>
+      <xdr:row>27</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
+      <xdr:col>5</xdr:col>
       <xdr:colOff>1</xdr:colOff>
-      <xdr:row>28</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -659,7 +847,74 @@
           <a:pPr algn="ctr"/>
           <a:r>
             <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
-            <a:t>혐의중</a:t>
+            <a:t>협의중</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
+            <a:t>...</a:t>
+          </a:r>
+          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2105025" y="2505075"/>
+          <a:ext cx="5800724" cy="504825"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:alpha val="86000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="dk1">
+            <a:shade val="50000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="dk1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="dk1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="ctr"/>
+          <a:r>
+            <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
+            <a:t>협의중</a:t>
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
@@ -1054,7 +1309,7 @@
         <v>28</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1066,7 +1321,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1096,239 +1351,364 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D34"/>
+  <dimension ref="B3:E38"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="B33" sqref="B33"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="26" customWidth="1"/>
-    <col min="3" max="3" width="35.875" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="18.625" customWidth="1"/>
+    <col min="3" max="3" width="26" customWidth="1"/>
+    <col min="4" max="4" width="35.875" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B6" s="1" t="s">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B6" s="14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C6" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="1" t="s">
+      <c r="D6" s="16" t="s">
         <v>5</v>
       </c>
-      <c r="D6" s="1" t="s">
+      <c r="E6" s="16" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="2" t="s">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C7" s="12" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="1" t="s">
+      <c r="D7" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="1"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="1"/>
+      <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D9" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C10" s="11" t="s">
+        <v>31</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="C10" s="1" t="s">
+      <c r="E10" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="C11" s="11" t="s">
+        <v>40</v>
+      </c>
+      <c r="D11" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C11" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C12" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1"/>
       <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C13" s="11" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C14" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="4"/>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="1"/>
       <c r="C15" s="4"/>
       <c r="D15" s="4"/>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B16" s="3" t="s">
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="13" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="D16" s="3"/>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17" s="1" t="s">
+      <c r="E16" s="3"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C19" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C20" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="1" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C21" s="11" t="s">
+        <v>38</v>
+      </c>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="C22" s="11" t="s">
+        <v>35</v>
+      </c>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C24" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D24" s="1"/>
+      <c r="E24" s="1"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>20</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C27" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="D27" s="1"/>
+      <c r="E27" s="1"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C28" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D28" s="1"/>
+      <c r="E28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1"/>
+      <c r="C29" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C32" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="C33" s="11" t="s">
+        <v>22</v>
+      </c>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>98</v>
+      </c>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="12" t="s">
+        <v>99</v>
+      </c>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="C36" s="12" t="s">
+        <v>72</v>
+      </c>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C37" s="12" t="s">
+        <v>73</v>
+      </c>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-    </row>
-    <row r="22" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B23" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C24" s="1"/>
-      <c r="D24" s="1"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C25" s="1"/>
-      <c r="D25" s="1"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="C28" s="1"/>
-      <c r="D28" s="1"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="C29" s="1"/>
-      <c r="D29" s="1"/>
-    </row>
-    <row r="30" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="31" spans="2:4" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>71</v>
-      </c>
-      <c r="C31" s="1"/>
-      <c r="D31" s="1"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="C32" s="1"/>
-      <c r="D32" s="1"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="2" t="s">
+      <c r="D38" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="C34" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="D34" s="1"/>
+      <c r="E38" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1356,18 +1736,18 @@
   <sheetData>
     <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B7" s="9" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1385,100 +1765,100 @@
     </row>
     <row r="9" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="D9" s="1"/>
     </row>
     <row r="10" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="D10" s="1"/>
     </row>
     <row r="11" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="D11" s="1"/>
     </row>
     <row r="12" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D12" s="1"/>
     </row>
     <row r="13" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D13" s="1"/>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D14" s="1"/>
     </row>
     <row r="15" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D15" s="1"/>
     </row>
     <row r="16" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="D16" s="1"/>
     </row>
     <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="C17" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="D17" s="1"/>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="D18" s="1"/>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B19" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D19" s="1"/>
     </row>
@@ -1582,7 +1962,7 @@
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="I15" sqref="I15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -382,71 +382,139 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>PC_Aim_Lock_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Aim_Touch_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Touch_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Aim_Pose_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wall_Hide_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wall_Aim_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wait_Rope_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ride_Rope_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Lock_Motion_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리 대기[왼손]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리 대기[오른쪽]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_L_Climb_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_R_Climb_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리기 점프[전방]</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>달리는 모션중 점프</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>PC_Hang_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Aim_Lock_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Aim_Touch_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Touch_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Aim_Pose_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Wall_Hide_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Wall_Aim_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Wait_Rope_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Ride_Rope_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Lock_Motion_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사다리 대기[왼손]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사다리 대기[오른쪽]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_Idle_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_L_Climb_Idle_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_R_Climb_Idle_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리기 점프[전방]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리는 모션중 점프</t>
+    <t>PC_Hang_Jump_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Ladder_End_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사다리 끝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Incap_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Incap_End_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_recogni_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Move_trace_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_recogni_trace_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_WRead_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_disarm_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_WPrep_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Attack_002</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">협의중 수정, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -487,7 +555,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -502,6 +570,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -586,7 +660,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -636,6 +710,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -795,25 +875,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>27</xdr:row>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>11</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>28574</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="직사각형 6"/>
+        <xdr:cNvPr id="8" name="직사각형 7"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="695325" y="5334000"/>
-          <a:ext cx="5762626" cy="238125"/>
+          <a:off x="2105025" y="2505075"/>
+          <a:ext cx="5800724" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -862,25 +942,25 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>14</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>1038225</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="직사각형 7"/>
+        <xdr:cNvPr id="9" name="직사각형 8"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2105025" y="2505075"/>
-          <a:ext cx="5800724" cy="504825"/>
+          <a:off x="2114550" y="6515101"/>
+          <a:ext cx="5743575" cy="400050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1252,7 +1332,7 @@
   <dimension ref="B2:E9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D6" sqref="D6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1326,9 +1406,15 @@
       <c r="E6" s="1"/>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" s="7"/>
-      <c r="C7" s="7"/>
-      <c r="D7" s="7"/>
+      <c r="B7" s="6">
+        <v>43552</v>
+      </c>
+      <c r="C7" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D7" s="7" t="s">
+        <v>121</v>
+      </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
@@ -1351,10 +1437,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E38"/>
+  <dimension ref="B3:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="H22" sqref="H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1391,7 +1477,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>4</v>
@@ -1461,7 +1547,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>13</v>
@@ -1473,7 +1559,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
@@ -1517,10 +1603,10 @@
         <v>78</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>102</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>103</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>104</v>
       </c>
       <c r="E19" s="1"/>
     </row>
@@ -1565,7 +1651,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>17</v>
@@ -1575,7 +1661,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>20</v>
@@ -1585,7 +1671,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>18</v>
@@ -1595,7 +1681,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>21</v>
@@ -1605,7 +1691,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>19</v>
@@ -1614,7 +1700,9 @@
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="1"/>
+      <c r="B29" s="1" t="s">
+        <v>105</v>
+      </c>
       <c r="C29" s="11" t="s">
         <v>43</v>
       </c>
@@ -1623,7 +1711,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>88</v>
+        <v>104</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>42</v>
@@ -1636,7 +1724,7 @@
     </row>
     <row r="32" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C32" s="11" t="s">
         <v>70</v>
@@ -1646,7 +1734,7 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>22</v>
@@ -1656,20 +1744,20 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -1700,15 +1788,25 @@
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="C38" s="12" t="s">
+        <v>107</v>
+      </c>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="C38" s="12" t="s">
+      <c r="C39" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="D39" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="E38" s="1"/>
+      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1720,222 +1818,258 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D34"/>
+  <dimension ref="B3:E34"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G22" sqref="G22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="6" customWidth="1"/>
-    <col min="2" max="2" width="23.125" customWidth="1"/>
-    <col min="3" max="3" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="13.875" customWidth="1"/>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B7" s="9" t="s">
+    <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C7" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="s">
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>109</v>
+      </c>
+      <c r="C8" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="C8" s="1" t="s">
+      <c r="D8" s="18" t="s">
         <v>5</v>
       </c>
-      <c r="D8" s="1" t="s">
+      <c r="E8" s="18" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C9" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="C9" s="1" t="s">
+      <c r="D9" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D9" s="1"/>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="C10" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="C10" s="1" t="s">
+      <c r="D10" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D10" s="1"/>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C11" s="1" t="s">
         <v>49</v>
       </c>
-      <c r="C11" s="1" t="s">
+      <c r="D11" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D12" s="1"/>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C13" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="C13" s="1" t="s">
+      <c r="D13" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="1"/>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C14" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="C14" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D14" s="1"/>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="C15" s="1" t="s">
+      <c r="D15" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D15" s="1"/>
-    </row>
-    <row r="16" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="C16" s="1" t="s">
+      <c r="D16" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D16" s="1"/>
-    </row>
-    <row r="17" spans="2:4" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="C17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="C17" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D17" s="1"/>
-    </row>
-    <row r="18" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="C18" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D18" s="1"/>
-    </row>
-    <row r="19" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B19" s="2" t="s">
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C19" s="1" t="s">
+      <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D19" s="1"/>
-    </row>
-    <row r="20" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B20" s="9"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
-    </row>
-    <row r="21" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B21" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
-    </row>
-    <row r="22" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B22" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
-    </row>
-    <row r="23" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
-    </row>
-    <row r="24" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B24" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
-    </row>
-    <row r="25" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B25" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
-    </row>
-    <row r="26" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B26" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
-    </row>
-    <row r="27" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B27" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
-    </row>
-    <row r="28" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B28" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
-    </row>
-    <row r="29" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B29" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
-    </row>
-    <row r="30" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B30" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
-    </row>
-    <row r="31" spans="2:4" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B32" s="9"/>
+      <c r="E31" s="9"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C32" s="9"/>
       <c r="D32" s="9"/>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B33" s="10"/>
-      <c r="C33" s="9"/>
+      <c r="E32" s="9"/>
+    </row>
+    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C33" s="10"/>
       <c r="D33" s="9"/>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B34" s="10"/>
-      <c r="C34" s="9"/>
+      <c r="E33" s="9"/>
+    </row>
+    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C34" s="10"/>
       <c r="D34" s="9"/>
+      <c r="E34" s="9"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="144">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -214,10 +214,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패트롤</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,15 +502,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP01_WPrep_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP01_Attack_002</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t xml:space="preserve">협의중 수정, </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동형 몬스터: CPOR_MP-01, CPOR_MP-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP-02 는 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP-02 는 없음</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동형 몬스터: CPOR_MS-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>파일명</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>명칭</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>내용</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>비고</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_Incap_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_Incap_End_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Wcharge_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_charge_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_release_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무력화 풀림</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP발사</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 준비 동작</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 발사!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CPOR_MA-01</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1401,7 +1489,7 @@
         <v>28</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1410,10 +1498,10 @@
         <v>43552</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1463,7 +1551,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>2</v>
@@ -1477,7 +1565,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>4</v>
@@ -1499,7 +1587,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="C9" s="11" t="s">
         <v>31</v>
@@ -1511,7 +1599,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="C10" s="11" t="s">
         <v>31</v>
@@ -1525,7 +1613,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="C11" s="11" t="s">
         <v>40</v>
@@ -1537,7 +1625,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>11</v>
@@ -1547,7 +1635,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C13" s="11" t="s">
         <v>13</v>
@@ -1559,7 +1647,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C14" s="11" t="s">
         <v>15</v>
@@ -1600,19 +1688,19 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>102</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>103</v>
       </c>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="C20" s="11" t="s">
         <v>10</v>
@@ -1624,26 +1712,26 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="C22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="23" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -1651,7 +1739,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>17</v>
@@ -1661,7 +1749,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>20</v>
@@ -1671,7 +1759,7 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C26" s="11" t="s">
         <v>18</v>
@@ -1681,7 +1769,7 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C27" s="11" t="s">
         <v>21</v>
@@ -1691,7 +1779,7 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C28" s="11" t="s">
         <v>19</v>
@@ -1701,7 +1789,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C29" s="11" t="s">
         <v>43</v>
@@ -1711,7 +1799,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C30" s="11" t="s">
         <v>42</v>
@@ -1724,17 +1812,17 @@
     </row>
     <row r="32" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C33" s="11" t="s">
         <v>22</v>
@@ -1744,61 +1832,61 @@
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C35" s="12" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C36" s="12" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="C37" s="12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="C38" s="12" t="s">
         <v>106</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>107</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="C39" s="12" t="s">
         <v>36</v>
@@ -1820,14 +1908,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G22" sqref="G22"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="23.125" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
     <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.875" customWidth="1"/>
   </cols>
@@ -1844,15 +1932,16 @@
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C7" s="9" t="s">
-        <v>46</v>
-      </c>
+      <c r="B7" t="s">
+        <v>120</v>
+      </c>
+      <c r="C7" s="9"/>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>2</v>
@@ -1866,135 +1955,147 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="1"/>
+        <v>61</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="E15" s="1"/>
+        <v>63</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E16" s="1"/>
+        <v>62</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>121</v>
+      </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="E17" s="1"/>
+      <c r="E17" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>119</v>
+        <v>132</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="E18" s="1"/>
+        <v>66</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
-      </c>
-      <c r="E19" s="1"/>
+        <v>67</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C20" s="9"/>
@@ -2007,6 +2108,9 @@
       <c r="E21" s="9"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>123</v>
+      </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
       <c r="E22" s="9"/>
@@ -2017,41 +2121,92 @@
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
+      <c r="B24" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>127</v>
+      </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
+      <c r="B25" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="C25" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
+      <c r="B26" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="C26" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
+      <c r="B27" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>137</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
+      <c r="B28" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>138</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
+      <c r="B29" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C30" s="9"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="9"/>
-    </row>
-    <row r="31" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
@@ -2061,12 +2216,15 @@
       <c r="D32" s="9"/>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>143</v>
+      </c>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="3:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C34" s="10"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="162" uniqueCount="144">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -482,30 +482,14 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP01_recogni_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP01_Move_trace_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP01_recogni_trace_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP01_WRead_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MP01_disarm_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP01_Attack_002</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t xml:space="preserve">협의중 수정, </t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -562,14 +546,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MS04_charge_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS04_release_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -602,7 +578,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>CPOR_MA-01</t>
+    <t>사다리를 다올라 왔을때 나오는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Back_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_WRead_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_disarm_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_Wcharge_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_Incap_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_Incap_End_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_Return_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>귀환</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>다시 돌아가서 사라짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_Move_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MA01_Come_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 신호를 받고 등장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정형 몬스터: CPOR_FW-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회전</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정형 몬스터: CPOR_FW-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>고정형 몬스터: 공장장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>대기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_Rotation_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_Recogni_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Recogni_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Recogni_trace_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Disarm_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_Charge_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_Release_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_Recogni_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_WRead_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동형 몬스터: CPOR_MA-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동형 몬스터: CPOR_MW-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동형, 고정형 몬스터 리스트 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -848,73 +1000,6 @@
         <a:xfrm>
           <a:off x="1600200" y="3028950"/>
           <a:ext cx="5800724" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:alpha val="86000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
-            <a:t>협의중</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
-            <a:t>...</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>1</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="직사각형 5"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="695325" y="1457325"/>
-          <a:ext cx="5762626" cy="238125"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1419,8 +1504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1501,14 +1586,20 @@
         <v>107</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="7"/>
-      <c r="C8" s="7"/>
-      <c r="D8" s="7"/>
+      <c r="B8" s="6">
+        <v>43553</v>
+      </c>
+      <c r="C8" s="7" t="s">
+        <v>180</v>
+      </c>
+      <c r="D8" s="7" t="s">
+        <v>181</v>
+      </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
@@ -1527,8 +1618,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E39"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="H22" sqref="H22"/>
+    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="I25" sqref="I25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1576,7 +1667,9 @@
       <c r="E7" s="1"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1"/>
+      <c r="B8" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="C8" s="11" t="s">
         <v>7</v>
       </c>
@@ -1881,7 +1974,9 @@
       <c r="C38" s="12" t="s">
         <v>106</v>
       </c>
-      <c r="D38" s="1"/>
+      <c r="D38" s="1" t="s">
+        <v>137</v>
+      </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
@@ -1906,10 +2001,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E34"/>
+  <dimension ref="B3:E52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D46" sqref="D46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1933,7 +2028,7 @@
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -2003,7 +2098,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>113</v>
+        <v>170</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>50</v>
@@ -2015,7 +2110,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>51</v>
@@ -2024,12 +2119,12 @@
         <v>61</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>115</v>
+        <v>171</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>52</v>
@@ -2038,12 +2133,12 @@
         <v>63</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>53</v>
@@ -2052,12 +2147,12 @@
         <v>62</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>117</v>
+        <v>172</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>64</v>
@@ -2066,12 +2161,12 @@
         <v>65</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>54</v>
@@ -2080,12 +2175,12 @@
         <v>66</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>118</v>
+        <v>143</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>55</v>
@@ -2094,7 +2189,7 @@
         <v>67</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -2109,7 +2204,7 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -2121,25 +2216,25 @@
       <c r="E23" s="9"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>127</v>
+      <c r="B24" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>135</v>
+        <v>129</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>56</v>
@@ -2148,10 +2243,10 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>136</v>
+        <v>130</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>57</v>
@@ -2160,10 +2255,10 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>137</v>
+        <v>131</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>58</v>
@@ -2172,10 +2267,10 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>138</v>
+        <v>132</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>59</v>
@@ -2184,25 +2279,25 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="C29" s="2" t="s">
         <v>133</v>
       </c>
-      <c r="C29" s="2" t="s">
-        <v>139</v>
-      </c>
       <c r="D29" s="1" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
+        <v>174</v>
+      </c>
+      <c r="C30" s="2" t="s">
         <v>134</v>
       </c>
-      <c r="C30" s="2" t="s">
-        <v>140</v>
-      </c>
       <c r="D30" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2218,16 +2313,194 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>143</v>
+        <v>178</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C34" s="10"/>
       <c r="D34" s="9"/>
       <c r="E34" s="9"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D35" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="C36" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C37" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="D37" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="C38" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D38" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="C39" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D39" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="E39" s="1"/>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E40" s="1"/>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C41" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="D41" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="E41" s="1"/>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C42" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D42" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="E42" s="1"/>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C43" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="D43" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="1"/>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="C44" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="D44" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D45" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="1"/>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="49" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C50" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D50" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E50" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="E51" s="1"/>
+    </row>
+    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C52" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D52" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="E52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2238,12 +2511,307 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="B3:E45"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="B41" sqref="B41"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="9"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>108</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D11" s="1"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D12" s="1"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>161</v>
+      </c>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C17" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D17" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E17" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B20" s="1"/>
+      <c r="C20" s="1"/>
+      <c r="D20" s="1"/>
+      <c r="E20" s="1"/>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="1"/>
+      <c r="C21" s="1"/>
+      <c r="D21" s="1"/>
+      <c r="E21" s="1"/>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B22" s="1"/>
+      <c r="C22" s="1"/>
+      <c r="D22" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1"/>
+      <c r="C23" s="1"/>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
+    </row>
+    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>162</v>
+      </c>
+      <c r="C26" s="10"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="10"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B28" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C28" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D28" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E28" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C29" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="D29" s="1"/>
+      <c r="E29" s="1"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B30" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="C30" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D30" s="1"/>
+      <c r="E30" s="1"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="C31" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="C32" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1"/>
+      <c r="C33" s="1"/>
+      <c r="D33" s="1"/>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1"/>
+      <c r="C34" s="1"/>
+      <c r="D34" s="1"/>
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="1"/>
+      <c r="C35" s="1"/>
+      <c r="D35" s="1"/>
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="1"/>
+      <c r="C36" s="1"/>
+      <c r="D36" s="1"/>
+      <c r="E36" s="1"/>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="1"/>
+      <c r="C37" s="1"/>
+      <c r="D37" s="1"/>
+      <c r="E37" s="1"/>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="1"/>
+      <c r="C38" s="1"/>
+      <c r="D38" s="1"/>
+      <c r="E38" s="1"/>
+    </row>
+    <row r="42" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="17" t="s">
+        <v>120</v>
+      </c>
+      <c r="C43" s="18" t="s">
+        <v>121</v>
+      </c>
+      <c r="D43" s="18" t="s">
+        <v>122</v>
+      </c>
+      <c r="E43" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="1"/>
+      <c r="C44" s="1"/>
+      <c r="D44" s="1"/>
+      <c r="E44" s="1"/>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="1"/>
+      <c r="C45" s="1"/>
+      <c r="D45" s="1"/>
+      <c r="E45" s="1"/>
+    </row>
+  </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,14 +9,15 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
     <sheet name="애니메이션 리스트" sheetId="1" r:id="rId2"/>
     <sheet name="이동형 몬스터" sheetId="4" r:id="rId3"/>
     <sheet name="고정형 몬스터" sheetId="5" r:id="rId4"/>
-    <sheet name="FSM" sheetId="3" r:id="rId5"/>
+    <sheet name="보스 몬스터" sheetId="6" r:id="rId5"/>
+    <sheet name="FSM" sheetId="3" r:id="rId6"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="186">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,18 +71,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>달리기[전방]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>착지</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>전방 모션으로 전방향 사용</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>벽 붙기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -170,10 +163,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뒤로 회전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대쉬</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -182,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>반대편으로 이동 모션</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대각선 삭제, 매달리기, 로테이션 모션 추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -338,26 +323,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Run_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>ReverseMove</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Back</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_RM_Motion_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_B_Rotate_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC_R_Climb_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -434,14 +399,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>달리기 점프[전방]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>달리는 모션중 점프</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC_Hang_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -494,10 +451,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동형 몬스터: CPOR_MP-01, CPOR_MP-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP-02 는 없음</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -506,10 +459,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>이동형 몬스터: CPOR_MS-04</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>파일명</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -646,18 +595,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고정형 몬스터: CPOR_FW-02</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>대기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>회전</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>인식</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -674,19 +615,107 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>고정형 몬스터: CPOR_FW-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>고정형 몬스터: 공장장</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FM_Idle_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>대기</t>
+    <t>FW_Recogni_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Recogni_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Recogni_trace_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MP01_Disarm_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_Charge_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MS04_Release_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_Recogni_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>이동형, 고정형 몬스터 리스트 추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던짐</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_TRead_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_Throw_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_ARead_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접공격 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>던지기 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FM_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>근접공격</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>유저를 봤을때 나오는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴1 물건 던지기 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>물건 던지기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>땅 찍기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패턴2 땅 찍기 준비</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FW_change_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>방향 변경</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>인식 방향 변경</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -694,67 +723,55 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>공격준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>공격</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FW_Rotation_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FW_Recogni_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP01_Recogni_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP01_Recogni_trace_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MP01_Disarm_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS04_Charge_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>MS04_Release_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM_Recogni_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM_WRead_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동형 몬스터: CPOR_MA-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동형 몬스터: CPOR_MW-01</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>강동민</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>이동형, 고정형 몬스터 리스트 추가</t>
+    <t>가스 살포!</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>패트롤 몬스터: CPOR_MP-01, CPOR_MP-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 자기장 몬스터: CPOR_MS-04</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>감시 드론 몬스터: CPOR_MA-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고 로봇 몬스터: CPOR_MW-01</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>특정지역 돌아다니는 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>스킬을 못쓰게 만드는 자기장을 만드는 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>경고신호 발생시 나오는 드론</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽에 붙어 감시하고 이동하는 감시카메라</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>몬스터 애니메이션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 몬스터: 공장장</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>사우론몬스터: CPOR_FW-02</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>좌, 우 를 돌아가며 인식하는 몬스터</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -820,7 +837,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -891,6 +908,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -900,7 +926,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -957,6 +983,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1116,13 +1145,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>9526</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>4</xdr:col>
       <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>34</xdr:row>
+      <xdr:row>29</xdr:row>
       <xdr:rowOff>200026</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1504,7 +1533,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E9"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
@@ -1518,16 +1547,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E2" s="5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -1535,10 +1564,10 @@
         <v>43543</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1547,10 +1576,10 @@
         <v>43546</v>
       </c>
       <c r="C4" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="7" t="s">
         <v>28</v>
-      </c>
-      <c r="D4" s="7" t="s">
-        <v>30</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1559,10 +1588,10 @@
         <v>43547</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1571,10 +1600,10 @@
         <v>43551</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1583,10 +1612,10 @@
         <v>43552</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>107</v>
+        <v>96</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1595,10 +1624,10 @@
         <v>43553</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>180</v>
+        <v>154</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>181</v>
+        <v>155</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1616,10 +1645,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E39"/>
+  <dimension ref="B3:E34"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I25" sqref="I25"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1642,7 +1671,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>2</v>
@@ -1656,7 +1685,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>98</v>
+        <v>89</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>4</v>
@@ -1668,7 +1697,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>138</v>
+        <v>125</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>7</v>
@@ -1680,73 +1709,73 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="C10" s="11" t="s">
+        <v>29</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>31</v>
       </c>
-      <c r="D10" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="E10" s="1" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>91</v>
+        <v>82</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>92</v>
+        <v>83</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E14" s="1"/>
     </row>
@@ -1769,7 +1798,7 @@
     <row r="17" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
       <c r="C17" s="11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D17" s="1" t="s">
         <v>8</v>
@@ -1781,215 +1810,164 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>77</v>
+        <v>81</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>101</v>
-      </c>
-      <c r="D19" s="1" t="s">
-        <v>102</v>
-      </c>
+        <v>15</v>
+      </c>
+      <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>10</v>
-      </c>
-      <c r="D20" s="1" t="s">
-        <v>12</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>38</v>
+        <v>16</v>
       </c>
       <c r="D21" s="1"/>
-      <c r="E21" s="1" t="s">
-        <v>78</v>
-      </c>
+      <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>81</v>
+        <v>86</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D22" s="1"/>
-      <c r="E22" s="1" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
+      <c r="E22" s="1"/>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C23" s="11" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="1"/>
+      <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>17</v>
+        <v>39</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>20</v>
+        <v>38</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C26" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="D26" s="1"/>
-      <c r="E26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>21</v>
+        <v>65</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C28" s="11" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>104</v>
-      </c>
-      <c r="C29" s="11" t="s">
-        <v>43</v>
+        <v>90</v>
+      </c>
+      <c r="C29" s="12" t="s">
+        <v>87</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="C30" s="11" t="s">
-        <v>42</v>
+        <v>91</v>
+      </c>
+      <c r="C30" s="12" t="s">
+        <v>88</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
-    <row r="31" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B31" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>93</v>
-      </c>
-      <c r="C32" s="11" t="s">
-        <v>69</v>
+        <v>73</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>68</v>
       </c>
       <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="C33" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="D33" s="1"/>
+      <c r="C33" s="12" t="s">
+        <v>95</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>124</v>
+      </c>
       <c r="E33" s="1"/>
     </row>
     <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="1" t="s">
-        <v>99</v>
+        <v>75</v>
       </c>
       <c r="C34" s="12" t="s">
-        <v>96</v>
-      </c>
-      <c r="D34" s="1"/>
+        <v>33</v>
+      </c>
+      <c r="D34" s="1" t="s">
+        <v>34</v>
+      </c>
       <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="C35" s="12" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C36" s="12" t="s">
-        <v>71</v>
-      </c>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1" t="s">
-        <v>82</v>
-      </c>
-      <c r="C37" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C38" s="12" t="s">
-        <v>106</v>
-      </c>
-      <c r="D38" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="1" t="s">
-        <v>84</v>
-      </c>
-      <c r="C39" s="12" t="s">
-        <v>36</v>
-      </c>
-      <c r="D39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="E39" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2004,7 +1982,7 @@
   <dimension ref="B3:E52"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D46" sqref="D46"/>
+      <selection activeCell="G47" sqref="G47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2017,26 +1995,28 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>116</v>
+        <v>174</v>
       </c>
       <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+      <c r="D7" s="9" t="s">
+        <v>178</v>
+      </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>2</v>
@@ -2050,146 +2030,146 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>111</v>
+        <v>100</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>112</v>
+        <v>101</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>170</v>
+        <v>148</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>113</v>
+        <v>102</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>171</v>
+        <v>149</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>114</v>
+        <v>103</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>117</v>
+        <v>105</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>172</v>
+        <v>150</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>128</v>
+        <v>115</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>143</v>
+        <v>130</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>118</v>
+        <v>106</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -2204,10 +2184,12 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>119</v>
+        <v>175</v>
       </c>
       <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
+      <c r="D22" s="10" t="s">
+        <v>179</v>
+      </c>
       <c r="E22" s="9"/>
     </row>
     <row r="23" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2217,87 +2199,87 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>123</v>
+        <v>110</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>124</v>
+        <v>111</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>125</v>
+        <v>112</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>126</v>
+        <v>113</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>127</v>
+        <v>114</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>173</v>
+        <v>151</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>133</v>
+        <v>120</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>135</v>
+        <v>122</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>174</v>
+        <v>152</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>134</v>
+        <v>121</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>136</v>
+        <v>123</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2313,10 +2295,12 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="C33" s="10"/>
-      <c r="D33" s="9"/>
+      <c r="D33" s="10" t="s">
+        <v>180</v>
+      </c>
       <c r="E33" s="9"/>
     </row>
     <row r="34" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
@@ -2326,13 +2310,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>3</v>
@@ -2340,139 +2324,142 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>139</v>
+        <v>126</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>151</v>
+        <v>138</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>150</v>
+        <v>137</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>147</v>
+        <v>134</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>148</v>
+        <v>135</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>149</v>
+        <v>136</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>145</v>
+        <v>132</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>58</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>146</v>
+        <v>133</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>59</v>
+        <v>55</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>140</v>
+        <v>127</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>141</v>
+        <v>128</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>142</v>
+        <v>129</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>54</v>
+        <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E44" s="1"/>
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>144</v>
+        <v>131</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D45" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
       <c r="E45" s="1"/>
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>179</v>
+        <v>177</v>
+      </c>
+      <c r="D48" t="s">
+        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
-        <v>120</v>
+        <v>107</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>121</v>
+        <v>108</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>122</v>
+        <v>109</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>3</v>
@@ -2480,25 +2467,25 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>109</v>
+        <v>98</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="D51" s="1" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="E51" s="1"/>
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>110</v>
+        <v>99</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>57</v>
+        <v>53</v>
       </c>
       <c r="E52" s="1"/>
     </row>
@@ -2511,10 +2498,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E45"/>
+  <dimension ref="B3:E29"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2527,26 +2514,28 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>154</v>
-      </c>
-      <c r="C7" s="9"/>
-      <c r="D7" s="9"/>
+        <v>184</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="D7" s="19"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>2</v>
@@ -2560,42 +2549,48 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>155</v>
+        <v>141</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
-      </c>
-      <c r="D10" s="1"/>
+        <v>170</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>171</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>169</v>
+        <v>147</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D11" s="1"/>
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>172</v>
+      </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="D12" s="1"/>
+        <v>143</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>173</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -2609,9 +2604,6 @@
       <c r="E14" s="9"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" t="s">
-        <v>161</v>
-      </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="9"/>
@@ -2621,203 +2613,263 @@
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C17" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E17" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
-      <c r="C18" s="1"/>
-      <c r="D18" s="1"/>
-      <c r="E18" s="1"/>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="1"/>
-      <c r="C19" s="1"/>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B20" s="1"/>
-      <c r="C20" s="1"/>
-      <c r="D20" s="1"/>
-      <c r="E20" s="1"/>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="1"/>
-      <c r="C21" s="1"/>
-      <c r="D21" s="1"/>
-      <c r="E21" s="1"/>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="1"/>
-      <c r="C22" s="1"/>
-      <c r="D22" s="1"/>
-      <c r="E22" s="1"/>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="1"/>
-      <c r="C23" s="1"/>
-      <c r="D23" s="1"/>
-      <c r="E23" s="1"/>
-    </row>
-    <row r="24" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
       <c r="E24" s="9"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
       <c r="E25" s="9"/>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B26" t="s">
-        <v>162</v>
-      </c>
-      <c r="C26" s="10"/>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
       <c r="D26" s="9"/>
       <c r="E26" s="9"/>
     </row>
-    <row r="27" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="10"/>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
       <c r="D27" s="9"/>
       <c r="E27" s="9"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C28" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D28" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="1" t="s">
-        <v>163</v>
-      </c>
-      <c r="C29" s="1" t="s">
-        <v>164</v>
-      </c>
-      <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>175</v>
-      </c>
-      <c r="C30" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B31" s="1" t="s">
-        <v>177</v>
-      </c>
-      <c r="C31" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>176</v>
-      </c>
-      <c r="C32" s="1" t="s">
-        <v>167</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="1"/>
-      <c r="C33" s="1"/>
-      <c r="D33" s="1"/>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1"/>
-      <c r="C34" s="1"/>
-      <c r="D34" s="1"/>
-      <c r="E34" s="1"/>
-    </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="1"/>
-      <c r="C35" s="1"/>
-      <c r="D35" s="1"/>
-      <c r="E35" s="1"/>
-    </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="1"/>
-      <c r="C36" s="1"/>
-      <c r="D36" s="1"/>
-      <c r="E36" s="1"/>
-    </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="1"/>
-      <c r="C37" s="1"/>
-      <c r="D37" s="1"/>
-      <c r="E37" s="1"/>
-    </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="1"/>
-      <c r="C38" s="1"/>
-      <c r="D38" s="1"/>
-      <c r="E38" s="1"/>
-    </row>
-    <row r="42" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="17" t="s">
-        <v>120</v>
-      </c>
-      <c r="C43" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="D43" s="18" t="s">
-        <v>122</v>
-      </c>
-      <c r="E43" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="1"/>
-      <c r="C44" s="1"/>
-      <c r="D44" s="1"/>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="1"/>
-      <c r="C45" s="1"/>
-      <c r="D45" s="1"/>
-      <c r="E45" s="1"/>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>183</v>
+      </c>
+      <c r="C7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="10"/>
+      <c r="D8" s="9"/>
+      <c r="E8" s="9"/>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C9" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D9" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E9" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E14" s="1"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B15" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E15" s="1"/>
+    </row>
+    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="1"/>
+      <c r="D16" s="1"/>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="1"/>
+      <c r="D17" s="1"/>
+      <c r="E17" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="1"/>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
+      <c r="C19" s="1"/>
+      <c r="D19" s="1"/>
+      <c r="E19" s="1"/>
+    </row>
+    <row r="23" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B24" s="17" t="s">
+        <v>97</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D24" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+      <c r="C25" s="1"/>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B26" s="1"/>
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="182">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -379,23 +379,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>사다리 대기[왼손]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>사다리 대기[오른쪽]</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>PC_Idle_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_L_Climb_Idle_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>PC_R_Climb_Idle_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1141,28 +1125,33 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>28</xdr:row>
-      <xdr:rowOff>9526</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>628651</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1038225</xdr:colOff>
-      <xdr:row>29</xdr:row>
-      <xdr:rowOff>200026</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>76200</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="직사각형 8"/>
+        <xdr:cNvPr id="3" name="직사각형 2"/>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2114550" y="6515101"/>
-          <a:ext cx="5743575" cy="400050"/>
+          <a:off x="628651" y="1390650"/>
+          <a:ext cx="8505824" cy="2486025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1211,7 +1200,7 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
@@ -1612,10 +1601,10 @@
         <v>43552</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1624,10 +1613,10 @@
         <v>43553</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1645,10 +1634,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E34"/>
+  <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1685,7 +1674,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>4</v>
@@ -1697,7 +1686,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="C8" s="11" t="s">
         <v>7</v>
@@ -1860,7 +1849,7 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="C24" s="11" t="s">
         <v>39</v>
@@ -1870,7 +1859,7 @@
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="C25" s="11" t="s">
         <v>38</v>
@@ -1903,71 +1892,51 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C29" s="12" t="s">
-        <v>87</v>
+        <v>67</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1"/>
+      <c r="E29" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>91</v>
+        <v>73</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>88</v>
+        <v>68</v>
       </c>
       <c r="D30" s="1"/>
-      <c r="E30" s="1"/>
+      <c r="E30" s="1" t="s">
+        <v>77</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>74</v>
+        <v>90</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>67</v>
-      </c>
-      <c r="D31" s="1"/>
-      <c r="E31" s="1" t="s">
-        <v>76</v>
-      </c>
+        <v>91</v>
+      </c>
+      <c r="D31" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E31" s="1"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="C32" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D32" s="1"/>
-      <c r="E32" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C33" s="12" t="s">
-        <v>95</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="E33" s="1"/>
-    </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C34" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="D34" s="1" t="s">
+      <c r="D32" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="E34" s="1"/>
+      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1981,8 +1950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E52"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G47" sqref="G47"/>
+    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="C55" sqref="C55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2006,17 +1975,17 @@
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>178</v>
+        <v>174</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>2</v>
@@ -2030,7 +1999,7 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C9" s="1" t="s">
         <v>42</v>
@@ -2042,7 +2011,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>43</v>
@@ -2054,7 +2023,7 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>44</v>
@@ -2066,7 +2035,7 @@
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>45</v>
@@ -2078,7 +2047,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
@@ -2090,7 +2059,7 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="C14" s="1" t="s">
         <v>47</v>
@@ -2099,12 +2068,12 @@
         <v>57</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>48</v>
@@ -2113,12 +2082,12 @@
         <v>59</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="C16" s="1" t="s">
         <v>49</v>
@@ -2127,12 +2096,12 @@
         <v>58</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
@@ -2141,12 +2110,12 @@
         <v>61</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="C18" s="1" t="s">
         <v>50</v>
@@ -2155,12 +2124,12 @@
         <v>62</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>51</v>
@@ -2169,7 +2138,7 @@
         <v>63</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -2184,11 +2153,11 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>175</v>
+        <v>171</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>179</v>
+        <v>175</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -2199,24 +2168,24 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>52</v>
@@ -2225,10 +2194,10 @@
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D26" s="1" t="s">
         <v>53</v>
@@ -2237,10 +2206,10 @@
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>54</v>
@@ -2249,10 +2218,10 @@
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="D28" s="1" t="s">
         <v>55</v>
@@ -2261,25 +2230,25 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2295,11 +2264,11 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>176</v>
+        <v>172</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>180</v>
+        <v>176</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -2310,13 +2279,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C35" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>3</v>
@@ -2324,7 +2293,7 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="C36" s="1" t="s">
         <v>42</v>
@@ -2336,22 +2305,22 @@
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="D38" s="1" t="s">
         <v>53</v>
@@ -2360,22 +2329,22 @@
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="D40" s="1" t="s">
         <v>54</v>
@@ -2384,7 +2353,7 @@
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C41" s="2" t="s">
         <v>45</v>
@@ -2396,7 +2365,7 @@
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="C42" s="1" t="s">
         <v>49</v>
@@ -2408,7 +2377,7 @@
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="C43" s="1" t="s">
         <v>60</v>
@@ -2420,7 +2389,7 @@
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="C44" s="1" t="s">
         <v>50</v>
@@ -2432,7 +2401,7 @@
     </row>
     <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C45" s="2" t="s">
         <v>51</v>
@@ -2444,22 +2413,22 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
+        <v>173</v>
+      </c>
+      <c r="D48" t="s">
         <v>177</v>
-      </c>
-      <c r="D48" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="17" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="C50" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E50" s="18" t="s">
         <v>3</v>
@@ -2467,7 +2436,7 @@
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="C51" s="1" t="s">
         <v>42</v>
@@ -2479,7 +2448,7 @@
     </row>
     <row r="52" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B52" s="1" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>43</v>
@@ -2499,197 +2468,6 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E29"/>
-  <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="24.25" customWidth="1"/>
-    <col min="3" max="3" width="24" customWidth="1"/>
-    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C3" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
-        <v>184</v>
-      </c>
-      <c r="C7" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="D7" s="19"/>
-      <c r="E7" s="9"/>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="17" t="s">
-        <v>97</v>
-      </c>
-      <c r="C8" s="18" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" s="18" t="s">
-        <v>5</v>
-      </c>
-      <c r="E8" s="18" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>141</v>
-      </c>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-    </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="1" t="s">
-        <v>169</v>
-      </c>
-      <c r="C10" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>171</v>
-      </c>
-      <c r="E10" s="1"/>
-    </row>
-    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B11" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="C11" s="1" t="s">
-        <v>142</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>172</v>
-      </c>
-      <c r="E11" s="1"/>
-    </row>
-    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B12" s="1" t="s">
-        <v>145</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>173</v>
-      </c>
-      <c r="E12" s="1"/>
-    </row>
-    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C13" s="9"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="9"/>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C14" s="9"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="9"/>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C15" s="9"/>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-    </row>
-    <row r="16" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="9"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="9"/>
-    </row>
-    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C17" s="9"/>
-      <c r="D17" s="9"/>
-      <c r="E17" s="9"/>
-    </row>
-    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C18" s="9"/>
-      <c r="D18" s="9"/>
-      <c r="E18" s="9"/>
-    </row>
-    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C19" s="9"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="9"/>
-    </row>
-    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C20" s="9"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-    </row>
-    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C21" s="9"/>
-      <c r="D21" s="9"/>
-      <c r="E21" s="9"/>
-    </row>
-    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-    </row>
-    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-    </row>
-    <row r="24" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C24" s="9"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="9"/>
-    </row>
-    <row r="25" spans="3:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="9"/>
-      <c r="D25" s="9"/>
-      <c r="E25" s="9"/>
-    </row>
-    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C26" s="9"/>
-      <c r="D26" s="9"/>
-      <c r="E26" s="9"/>
-    </row>
-    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C27" s="9"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="9"/>
-    </row>
-    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C28" s="9"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="9"/>
-    </row>
-    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
-      <c r="C29" s="9"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="9"/>
-    </row>
-  </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="C7:D7"/>
-  </mergeCells>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E26"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
@@ -2710,13 +2488,204 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>182</v>
+        <v>41</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>183</v>
+        <v>180</v>
+      </c>
+      <c r="C7" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="D7" s="19"/>
+      <c r="E7" s="9"/>
+    </row>
+    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B8" s="17" t="s">
+        <v>93</v>
+      </c>
+      <c r="C8" s="18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D8" s="18" t="s">
+        <v>5</v>
+      </c>
+      <c r="E8" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D9" s="1"/>
+      <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="C11" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C12" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>169</v>
+      </c>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C14" s="9"/>
+      <c r="D14" s="9"/>
+      <c r="E14" s="9"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+    </row>
+    <row r="16" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+    </row>
+    <row r="17" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C17" s="9"/>
+      <c r="D17" s="9"/>
+      <c r="E17" s="9"/>
+    </row>
+    <row r="18" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C18" s="9"/>
+      <c r="D18" s="9"/>
+      <c r="E18" s="9"/>
+    </row>
+    <row r="19" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C19" s="9"/>
+      <c r="D19" s="9"/>
+      <c r="E19" s="9"/>
+    </row>
+    <row r="20" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C20" s="9"/>
+      <c r="D20" s="9"/>
+      <c r="E20" s="9"/>
+    </row>
+    <row r="21" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C21" s="9"/>
+      <c r="D21" s="9"/>
+      <c r="E21" s="9"/>
+    </row>
+    <row r="22" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C22" s="9"/>
+      <c r="D22" s="9"/>
+      <c r="E22" s="9"/>
+    </row>
+    <row r="23" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C23" s="9"/>
+      <c r="D23" s="9"/>
+      <c r="E23" s="9"/>
+    </row>
+    <row r="24" spans="3:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="9"/>
+      <c r="D24" s="9"/>
+      <c r="E24" s="9"/>
+    </row>
+    <row r="25" spans="3:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="9"/>
+      <c r="D25" s="9"/>
+      <c r="E25" s="9"/>
+    </row>
+    <row r="26" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C26" s="9"/>
+      <c r="D26" s="9"/>
+      <c r="E26" s="9"/>
+    </row>
+    <row r="27" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C27" s="9"/>
+      <c r="D27" s="9"/>
+      <c r="E27" s="9"/>
+    </row>
+    <row r="28" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C28" s="9"/>
+      <c r="D28" s="9"/>
+      <c r="E28" s="9"/>
+    </row>
+    <row r="29" spans="3:5" x14ac:dyDescent="0.3">
+      <c r="C29" s="9"/>
+      <c r="D29" s="9"/>
+      <c r="E29" s="9"/>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C7:D7"/>
+  </mergeCells>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:E26"/>
+  <sheetViews>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="D20" sqref="D20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="24.25" customWidth="1"/>
+    <col min="3" max="3" width="24" customWidth="1"/>
+    <col min="4" max="4" width="47.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>179</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -2729,13 +2698,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C9" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3</v>
@@ -2743,7 +2712,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -2753,61 +2722,61 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>161</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>165</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>159</v>
+        <v>155</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>163</v>
-      </c>
-      <c r="D15" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2838,13 +2807,13 @@
     <row r="23" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="C24" s="18" t="s">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>3</v>
@@ -2866,6 +2835,7 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="182">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="177">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -599,10 +599,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FM_Idle_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>FW_Recogni_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -627,10 +623,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>FM_Recogni_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>강동민</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,34 +631,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>던짐</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM_TRead_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM_Throw_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM_ARead_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접공격 준비</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>던지기 준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>FM_Attack_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>근접공격</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -675,14 +643,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>패턴1 물건 던지기 준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>물건 던지기</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>땅 찍기</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -756,6 +716,26 @@
   </si>
   <si>
     <t>좌, 우 를 돌아가며 인식하는 몬스터</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1_Idle_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1_Recogni_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1_ARead_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1_Attack_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Boss1__001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1133,15 +1113,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>628651</xdr:colOff>
+      <xdr:colOff>657226</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>28575</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>76200</xdr:colOff>
+      <xdr:colOff>104775</xdr:colOff>
       <xdr:row>19</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:rowOff>171450</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1150,7 +1130,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="628651" y="1390650"/>
+          <a:off x="657226" y="1466850"/>
           <a:ext cx="8505824" cy="2486025"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1613,10 +1593,10 @@
         <v>43553</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1636,8 +1616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E32"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="G27" sqref="G27"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1975,11 +1955,11 @@
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>170</v>
+        <v>160</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>174</v>
+        <v>164</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -2047,7 +2027,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>46</v>
@@ -2073,7 +2053,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>48</v>
@@ -2101,7 +2081,7 @@
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>60</v>
@@ -2153,11 +2133,11 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>171</v>
+        <v>161</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>175</v>
+        <v>165</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -2230,7 +2210,7 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>116</v>
@@ -2242,7 +2222,7 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="C30" s="2" t="s">
         <v>117</v>
@@ -2264,11 +2244,11 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>172</v>
+        <v>162</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>176</v>
+        <v>166</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -2413,10 +2393,10 @@
     </row>
     <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>173</v>
+        <v>163</v>
       </c>
       <c r="D48" t="s">
-        <v>177</v>
+        <v>167</v>
       </c>
     </row>
     <row r="49" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
@@ -2494,10 +2474,10 @@
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>180</v>
+        <v>170</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="9"/>
@@ -2528,25 +2508,25 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>165</v>
+        <v>155</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>166</v>
+        <v>156</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>167</v>
+        <v>157</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
       <c r="E11" s="1"/>
     </row>
@@ -2558,7 +2538,7 @@
         <v>139</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>169</v>
+        <v>159</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2660,8 +2640,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2679,13 +2659,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>178</v>
+        <v>168</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>179</v>
+        <v>169</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -2712,7 +2692,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>142</v>
+        <v>172</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>42</v>
@@ -2722,61 +2702,53 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>149</v>
+        <v>173</v>
       </c>
       <c r="C11" s="1" t="s">
         <v>138</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>160</v>
+        <v>152</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="C12" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="D12" s="1" t="s">
-        <v>161</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C12" s="1"/>
+      <c r="D12" s="1"/>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>154</v>
-      </c>
-      <c r="C13" s="1" t="s">
-        <v>152</v>
-      </c>
-      <c r="D13" s="1" t="s">
-        <v>162</v>
-      </c>
+        <v>176</v>
+      </c>
+      <c r="C13" s="1"/>
+      <c r="D13" s="1"/>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>155</v>
+        <v>174</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>156</v>
+        <v>150</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>164</v>
+        <v>154</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>159</v>
+        <v>151</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>163</v>
+        <v>153</v>
       </c>
       <c r="E15" s="1"/>
     </row>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="177">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="175">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -59,10 +59,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>뒤로 이동</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>뒷걸음질 하는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -515,10 +511,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>PC_Back_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MA01_Idle_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -531,10 +523,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MA01_Wcharge_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MP01_Attack_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -736,6 +724,10 @@
   </si>
   <si>
     <t>Boss1__001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>수정된 내용 적용(뒤로가기, 차지 제거)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -975,13 +967,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>17</xdr:row>
+      <xdr:row>16</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1042,13 +1034,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>11</xdr:row>
+      <xdr:row>10</xdr:row>
       <xdr:rowOff>200025</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>28574</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1500,10 +1492,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E9"/>
+  <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1516,16 +1508,16 @@
   <sheetData>
     <row r="2" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B2" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="C2" s="5" t="s">
-        <v>25</v>
-      </c>
       <c r="D2" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="5" t="s">
         <v>22</v>
-      </c>
-      <c r="E2" s="5" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
@@ -1533,10 +1525,10 @@
         <v>43543</v>
       </c>
       <c r="C3" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D3" s="7" t="s">
         <v>26</v>
-      </c>
-      <c r="D3" s="7" t="s">
-        <v>27</v>
       </c>
       <c r="E3" s="1"/>
     </row>
@@ -1545,10 +1537,10 @@
         <v>43546</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E4" s="1"/>
     </row>
@@ -1557,10 +1549,10 @@
         <v>43547</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="E5" s="1"/>
     </row>
@@ -1569,10 +1561,10 @@
         <v>43551</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="E6" s="1"/>
     </row>
@@ -1581,10 +1573,10 @@
         <v>43552</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E7" s="1"/>
     </row>
@@ -1593,18 +1585,54 @@
         <v>43553</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
+      <c r="B9" s="6">
+        <v>43563</v>
+      </c>
+      <c r="C9" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="D9" s="7" t="s">
+        <v>174</v>
+      </c>
       <c r="E9" s="1"/>
+    </row>
+    <row r="10" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B10" s="7"/>
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="1"/>
+    </row>
+    <row r="11" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="1"/>
+    </row>
+    <row r="12" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
+      <c r="E12" s="1"/>
+    </row>
+    <row r="13" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="7"/>
+      <c r="C14" s="7"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1614,10 +1642,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E32"/>
+  <dimension ref="B3:E31"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+      <selection activeCell="D24" sqref="D24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1640,7 +1668,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B6" s="14" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C6" s="15" t="s">
         <v>2</v>
@@ -1654,7 +1682,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>4</v>
@@ -1666,62 +1694,62 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="1" t="s">
-        <v>121</v>
+        <v>71</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>7</v>
+        <v>28</v>
       </c>
       <c r="D8" s="1" t="s">
-        <v>8</v>
+        <v>29</v>
       </c>
       <c r="E8" s="1"/>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="E9" s="1"/>
+      <c r="E9" s="1" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>29</v>
+        <v>35</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>32</v>
-      </c>
+        <v>36</v>
+      </c>
+      <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>36</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>37</v>
-      </c>
+        <v>9</v>
+      </c>
+      <c r="D11" s="1"/>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="C12" s="11" t="s">
         <v>10</v>
       </c>
-      <c r="D12" s="1"/>
+      <c r="D12" s="1" t="s">
+        <v>11</v>
+      </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
@@ -1729,150 +1757,150 @@
         <v>82</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E13" s="1"/>
     </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B14" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="C14" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="E14" s="1"/>
-    </row>
-    <row r="15" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="1"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+    </row>
+    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1"/>
-      <c r="C15" s="4"/>
-      <c r="D15" s="4"/>
-      <c r="E15" s="4"/>
+      <c r="C15" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15" s="3"/>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B16" s="1"/>
-      <c r="C16" s="13" t="s">
-        <v>9</v>
+      <c r="C16" s="11" t="s">
+        <v>20</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E16" s="3"/>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+        <v>7</v>
+      </c>
+      <c r="E16" s="1"/>
+    </row>
+    <row r="17" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1"/>
-      <c r="C17" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="E17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B18" s="1"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C18" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="D18" s="1"/>
+      <c r="E18" s="1"/>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="D19" s="1"/>
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>79</v>
+        <v>85</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>78</v>
+        <v>88</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>17</v>
+        <v>38</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="C25" s="11" t="s">
-        <v>38</v>
-      </c>
-      <c r="D25" s="1"/>
-      <c r="E25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B26" s="1"/>
-    </row>
-    <row r="27" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B26" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="D26" s="1"/>
+      <c r="E26" s="1"/>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
         <v>84</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>85</v>
-      </c>
-      <c r="C28" s="11" t="s">
-        <v>20</v>
+        <v>73</v>
+      </c>
+      <c r="C28" s="12" t="s">
+        <v>66</v>
       </c>
       <c r="D28" s="1"/>
-      <c r="E28" s="1"/>
+      <c r="E28" s="1" t="s">
+        <v>75</v>
+      </c>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C29" s="12" t="s">
         <v>67</v>
@@ -1884,39 +1912,27 @@
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>73</v>
+        <v>89</v>
       </c>
       <c r="C30" s="12" t="s">
-        <v>68</v>
-      </c>
-      <c r="D30" s="1"/>
-      <c r="E30" s="1" t="s">
-        <v>77</v>
-      </c>
+        <v>90</v>
+      </c>
+      <c r="D30" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
-        <v>90</v>
+        <v>74</v>
       </c>
       <c r="C31" s="12" t="s">
-        <v>91</v>
+        <v>32</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>120</v>
+        <v>33</v>
       </c>
       <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="C32" s="12" t="s">
-        <v>33</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="E32" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -1928,10 +1944,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E52"/>
+  <dimension ref="B3:E51"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C55" sqref="C55"/>
+      <selection activeCell="A44" sqref="A44:XFD44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1944,28 +1960,28 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>2</v>
@@ -1979,146 +1995,146 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E12" s="1"/>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="E13" s="1"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="E15" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="16" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B16" s="1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>61</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="18" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B18" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="E19" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
@@ -2133,11 +2149,11 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -2148,87 +2164,87 @@
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C24" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C24" s="18" t="s">
+      <c r="D24" s="18" t="s">
         <v>104</v>
       </c>
-      <c r="D24" s="18" t="s">
+      <c r="E24" s="18" t="s">
         <v>105</v>
-      </c>
-      <c r="E24" s="18" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="25" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B25" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E25" s="1"/>
     </row>
     <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E27" s="1"/>
     </row>
     <row r="28" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B28" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E28" s="1"/>
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="E30" s="1"/>
     </row>
@@ -2244,11 +2260,11 @@
     </row>
     <row r="33" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="C33" s="10"/>
       <c r="D33" s="10" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
       <c r="E33" s="9"/>
     </row>
@@ -2259,13 +2275,13 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C35" s="18" t="s">
         <v>103</v>
       </c>
-      <c r="C35" s="18" t="s">
+      <c r="D35" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="E35" s="18" t="s">
         <v>3</v>
@@ -2273,105 +2289,105 @@
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="C43" s="1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D43" s="1" t="s">
         <v>60</v>
-      </c>
-      <c r="D43" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="E43" s="1"/>
     </row>
     <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="1" t="s">
-        <v>125</v>
-      </c>
-      <c r="C44" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="C44" s="2" t="s">
         <v>50</v>
       </c>
       <c r="D44" s="1" t="s">
@@ -2379,40 +2395,40 @@
       </c>
       <c r="E44" s="1"/>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C45" s="2" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>160</v>
+      </c>
+      <c r="D47" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="49" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B49" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C49" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E49" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B50" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C50" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D50" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="E45" s="1"/>
-    </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" t="s">
-        <v>163</v>
-      </c>
-      <c r="D48" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B50" s="17" t="s">
-        <v>103</v>
-      </c>
-      <c r="C50" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="D50" s="18" t="s">
-        <v>105</v>
-      </c>
-      <c r="E50" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="E50" s="1"/>
     </row>
     <row r="51" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B51" s="1" t="s">
@@ -2425,18 +2441,6 @@
         <v>52</v>
       </c>
       <c r="E51" s="1"/>
-    </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="C52" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="E52" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2463,28 +2467,28 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="9"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B8" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="18" t="s">
         <v>2</v>
@@ -2498,47 +2502,47 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2640,7 +2644,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E26"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="K13" sqref="K13"/>
     </sheetView>
   </sheetViews>
@@ -2654,18 +2658,18 @@
   <sheetData>
     <row r="3" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -2678,13 +2682,13 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C9" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D9" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="D9" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="E9" s="18" t="s">
         <v>3</v>
@@ -2692,29 +2696,29 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2722,7 +2726,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2730,25 +2734,25 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="E15" s="1"/>
     </row>
@@ -2779,13 +2783,13 @@
     <row r="23" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="17" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C24" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D24" s="18" t="s">
         <v>104</v>
-      </c>
-      <c r="D24" s="18" t="s">
-        <v>105</v>
       </c>
       <c r="E24" s="18" t="s">
         <v>3</v>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="5"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="238" uniqueCount="175">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="183">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -728,6 +728,38 @@
   </si>
   <si>
     <t>수정된 내용 적용(뒤로가기, 차지 제거)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wall_Run_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wall_End_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽타기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 집고 내려오기</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽을 타고 올라갈때 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>한계치 까지 이동하여 내려오는 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>강동민</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽타기 내용추가</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1033,15 +1065,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
+      <xdr:colOff>28575</xdr:colOff>
       <xdr:row>10</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:rowOff>142875</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>28574</xdr:colOff>
+      <xdr:colOff>57149</xdr:colOff>
       <xdr:row>13</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>19050</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1050,7 +1082,7 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="2105025" y="2505075"/>
+          <a:off x="2133600" y="2238375"/>
           <a:ext cx="5800724" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1494,7 +1526,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
@@ -1605,9 +1637,15 @@
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B10" s="7"/>
-      <c r="C10" s="7"/>
-      <c r="D10" s="7"/>
+      <c r="B10" s="6">
+        <v>43570</v>
+      </c>
+      <c r="C10" s="7" t="s">
+        <v>181</v>
+      </c>
+      <c r="D10" s="7" t="s">
+        <v>182</v>
+      </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
@@ -1642,10 +1680,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E31"/>
+  <dimension ref="B3:E33"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="D24" sqref="D24"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1933,6 +1971,30 @@
         <v>33</v>
       </c>
       <c r="E31" s="1"/>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>177</v>
+      </c>
+      <c r="D32" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="E32" s="1"/>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>178</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="E33" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2819,8 +2881,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="5"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="183">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="189">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -760,6 +760,30 @@
   </si>
   <si>
     <t>벽타기 내용추가</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조준 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Aim_clear_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wall_HideE_001</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>PC_Wall_AimE_00</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 조준 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>벽 붙기 해제</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -999,13 +1023,13 @@
     <xdr:from>
       <xdr:col>2</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>13</xdr:row>
+      <xdr:row>15</xdr:row>
       <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>5</xdr:col>
       <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>16</xdr:row>
+      <xdr:row>18</xdr:row>
       <xdr:rowOff>76200</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
@@ -1016,73 +1040,6 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="1600200" y="3028950"/>
-          <a:ext cx="5800724" cy="504825"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:alpha val="86000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </xdr:spPr>
-      <xdr:style>
-        <a:lnRef idx="2">
-          <a:schemeClr val="dk1">
-            <a:shade val="50000"/>
-          </a:schemeClr>
-        </a:lnRef>
-        <a:fillRef idx="1">
-          <a:schemeClr val="dk1"/>
-        </a:fillRef>
-        <a:effectRef idx="0">
-          <a:schemeClr val="dk1"/>
-        </a:effectRef>
-        <a:fontRef idx="minor">
-          <a:schemeClr val="lt1"/>
-        </a:fontRef>
-      </xdr:style>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="ctr"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="ctr"/>
-          <a:r>
-            <a:rPr lang="ko-KR" altLang="en-US" sz="1600"/>
-            <a:t>협의중</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr lang="en-US" altLang="ko-KR" sz="1600"/>
-            <a:t>...</a:t>
-          </a:r>
-          <a:endParaRPr lang="ko-KR" altLang="en-US" sz="1600"/>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>28575</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>57149</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="직사각형 7"/>
-        <xdr:cNvSpPr/>
-      </xdr:nvSpPr>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="2133600" y="2238375"/>
           <a:ext cx="5800724" cy="504825"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1680,10 +1637,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E33"/>
+  <dimension ref="B3:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1792,209 +1749,239 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="C13" s="11" t="s">
+        <v>188</v>
+      </c>
+      <c r="D13" s="1"/>
+      <c r="E13" s="1"/>
+    </row>
+    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B14" s="1" t="s">
         <v>82</v>
       </c>
-      <c r="C13" s="11" t="s">
+      <c r="C14" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="D13" s="1" t="s">
+      <c r="D14" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="E13" s="1"/>
-    </row>
-    <row r="14" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="1"/>
-      <c r="C14" s="4"/>
-      <c r="D14" s="4"/>
-      <c r="E14" s="4"/>
+      <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="1"/>
-      <c r="C15" s="13" t="s">
+      <c r="B15" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="C15" s="11" t="s">
+        <v>187</v>
+      </c>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+    </row>
+    <row r="16" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B16" s="1"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B17" s="1"/>
+      <c r="C17" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="D15" s="1" t="s">
+      <c r="D17" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="E15" s="3"/>
-    </row>
-    <row r="16" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="1"/>
-      <c r="C16" s="11" t="s">
+      <c r="E17" s="3"/>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B18" s="1"/>
+      <c r="C18" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="1" t="s">
+      <c r="D18" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="E16" s="1"/>
-    </row>
-    <row r="17" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B17" s="1"/>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="C18" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="D18" s="1"/>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="C19" s="11" t="s">
-        <v>17</v>
-      </c>
-      <c r="D19" s="1"/>
-      <c r="E19" s="1"/>
+    <row r="19" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="1"/>
     </row>
     <row r="20" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B20" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>85</v>
+        <v>184</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>18</v>
+        <v>183</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" s="1" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B23" s="1" t="s">
-        <v>88</v>
+        <v>78</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>38</v>
+        <v>15</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
     </row>
     <row r="24" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B24" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>37</v>
+        <v>18</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
     </row>
-    <row r="25" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="1"/>
-    </row>
-    <row r="26" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B25" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C25" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="D25" s="1"/>
+      <c r="E25" s="1"/>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B26" s="1" t="s">
-        <v>83</v>
+        <v>88</v>
       </c>
       <c r="C26" s="11" t="s">
-        <v>64</v>
+        <v>38</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
     </row>
     <row r="27" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B27" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="C27" s="11" t="s">
-        <v>19</v>
+        <v>37</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
     </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="1" t="s">
-        <v>73</v>
-      </c>
-      <c r="C28" s="12" t="s">
-        <v>66</v>
-      </c>
-      <c r="D28" s="1"/>
-      <c r="E28" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B28" s="1"/>
+    </row>
+    <row r="29" spans="2:5" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>72</v>
-      </c>
-      <c r="C29" s="12" t="s">
-        <v>67</v>
+        <v>83</v>
+      </c>
+      <c r="C29" s="11" t="s">
+        <v>64</v>
       </c>
       <c r="D29" s="1"/>
-      <c r="E29" s="1" t="s">
-        <v>76</v>
-      </c>
+      <c r="E29" s="1"/>
     </row>
     <row r="30" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B30" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="C30" s="12" t="s">
-        <v>90</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>119</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="C30" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30" s="1"/>
       <c r="E30" s="1"/>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C31" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="D31" s="1"/>
+      <c r="E31" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C32" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D32" s="1"/>
+      <c r="E32" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C33" s="12" t="s">
+        <v>90</v>
+      </c>
+      <c r="D33" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="E33" s="1"/>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="1" t="s">
         <v>74</v>
       </c>
-      <c r="C31" s="12" t="s">
+      <c r="C34" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="D31" s="1" t="s">
+      <c r="D34" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="E31" s="1"/>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="2" t="s">
+      <c r="E34" s="1"/>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C32" s="2" t="s">
+      <c r="C35" s="2" t="s">
         <v>177</v>
       </c>
-      <c r="D32" s="1" t="s">
+      <c r="D35" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="E32" s="1"/>
-    </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="2" t="s">
+      <c r="E35" s="1"/>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C33" s="2" t="s">
+      <c r="C36" s="2" t="s">
         <v>178</v>
       </c>
-      <c r="D33" s="1" t="s">
+      <c r="D36" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="E33" s="1"/>
+      <c r="E36" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2881,7 +2868,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <selection activeCell="J31" sqref="J31"/>
     </sheetView>
   </sheetViews>

--- a/Document/애니메이션 리스트.xlsx
+++ b/Document/애니메이션 리스트.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="8040" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="개요" sheetId="2" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="186">
   <si>
     <t>애니메이션 리스트</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -491,22 +491,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EMP준비</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>EMP발사</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>EMP 준비 동작</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>EMP 발사!</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>사다리를 다올라 왔을때 나오는 모션</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -603,10 +591,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>MS04_Charge_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>MS04_Release_001</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -784,6 +768,10 @@
   </si>
   <si>
     <t>벽 붙기 해제</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>EMP 준비 동작과 발사동작</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1574,10 +1562,10 @@
         <v>43553</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="E8" s="1"/>
     </row>
@@ -1589,7 +1577,7 @@
         <v>91</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="E9" s="1"/>
     </row>
@@ -1598,10 +1586,10 @@
         <v>43570</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>181</v>
+        <v>177</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>182</v>
+        <v>178</v>
       </c>
       <c r="E10" s="1"/>
     </row>
@@ -1639,8 +1627,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:E36"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView showGridLines="0" workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1749,10 +1737,10 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="D13" s="1"/>
       <c r="E13" s="1"/>
@@ -1771,10 +1759,10 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
@@ -1820,10 +1808,10 @@
     </row>
     <row r="21" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B21" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
@@ -1943,7 +1931,7 @@
         <v>90</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="E33" s="1"/>
     </row>
@@ -1961,25 +1949,25 @@
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>173</v>
+      </c>
+      <c r="D35" s="1" t="s">
         <v>175</v>
-      </c>
-      <c r="C35" s="2" t="s">
-        <v>177</v>
-      </c>
-      <c r="D35" s="1" t="s">
-        <v>179</v>
       </c>
       <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="2" t="s">
+        <v>172</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>174</v>
+      </c>
+      <c r="D36" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="D36" s="1" t="s">
-        <v>180</v>
       </c>
       <c r="E36" s="1"/>
     </row>
@@ -1993,10 +1981,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E51"/>
+  <dimension ref="B3:E50"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="A44" sqref="A44:XFD44"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2020,11 +2008,11 @@
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="C7" s="9"/>
       <c r="D7" s="9" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="E7" s="9"/>
     </row>
@@ -2092,7 +2080,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C13" s="1" t="s">
         <v>45</v>
@@ -2118,7 +2106,7 @@
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>47</v>
@@ -2146,7 +2134,7 @@
     </row>
     <row r="17" spans="2:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="B17" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="C17" s="1" t="s">
         <v>59</v>
@@ -2174,7 +2162,7 @@
     </row>
     <row r="19" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B19" s="1" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C19" s="2" t="s">
         <v>50</v>
@@ -2198,11 +2186,11 @@
     </row>
     <row r="22" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="C22" s="9"/>
       <c r="D22" s="10" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E22" s="9"/>
     </row>
@@ -2275,221 +2263,209 @@
     </row>
     <row r="29" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B29" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="C29" s="2" t="s">
         <v>115</v>
       </c>
       <c r="D29" s="1" t="s">
-        <v>117</v>
+        <v>185</v>
       </c>
       <c r="E29" s="1"/>
     </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="1" t="s">
-        <v>144</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>116</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>118</v>
-      </c>
-      <c r="E30" s="1"/>
-    </row>
-    <row r="31" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:5" ht="15" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C30" s="9"/>
+      <c r="D30" s="9"/>
+      <c r="E30" s="9"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
       <c r="E31" s="9"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="C32" s="9"/>
-      <c r="D32" s="9"/>
+      <c r="B32" t="s">
+        <v>155</v>
+      </c>
+      <c r="C32" s="10"/>
+      <c r="D32" s="10" t="s">
+        <v>159</v>
+      </c>
       <c r="E32" s="9"/>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" t="s">
-        <v>159</v>
-      </c>
+    <row r="33" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C33" s="10"/>
-      <c r="D33" s="10" t="s">
-        <v>163</v>
-      </c>
+      <c r="D33" s="9"/>
       <c r="E33" s="9"/>
     </row>
-    <row r="34" spans="2:5" ht="9" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C34" s="10"/>
-      <c r="D34" s="9"/>
-      <c r="E34" s="9"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C34" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D34" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E34" s="18" t="s">
+        <v>3</v>
+      </c>
     </row>
     <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C35" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D35" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="B35" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C35" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D35" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" s="1"/>
     </row>
     <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="1" t="s">
-        <v>120</v>
+        <v>128</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>41</v>
+        <v>129</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>51</v>
+        <v>130</v>
       </c>
       <c r="E36" s="1"/>
     </row>
     <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="1" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>133</v>
+        <v>52</v>
       </c>
       <c r="E37" s="1"/>
     </row>
     <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="1" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
       <c r="C38" s="1" t="s">
-        <v>112</v>
+        <v>125</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>52</v>
+        <v>126</v>
       </c>
       <c r="E38" s="1"/>
     </row>
     <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="1" t="s">
-        <v>127</v>
-      </c>
-      <c r="C39" s="1" t="s">
-        <v>128</v>
+        <v>122</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>113</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>129</v>
+        <v>53</v>
       </c>
       <c r="E39" s="1"/>
     </row>
     <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>113</v>
+        <v>44</v>
       </c>
       <c r="D40" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E40" s="1"/>
     </row>
     <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="1" t="s">
-        <v>126</v>
-      </c>
-      <c r="C41" s="2" t="s">
-        <v>44</v>
+        <v>118</v>
+      </c>
+      <c r="C41" s="1" t="s">
+        <v>48</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="E41" s="1"/>
     </row>
     <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="D42" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="E42" s="1"/>
     </row>
     <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="C43" s="1" t="s">
-        <v>59</v>
+        <v>121</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>50</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
       <c r="E43" s="1"/>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="1" t="s">
-        <v>124</v>
-      </c>
-      <c r="C44" s="2" t="s">
-        <v>50</v>
-      </c>
-      <c r="D44" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="E44" s="1"/>
-    </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>156</v>
+      </c>
+      <c r="D46" t="s">
         <v>160</v>
       </c>
-      <c r="D47" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="48" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    </row>
+    <row r="47" spans="2:5" ht="9.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="17" t="s">
+        <v>102</v>
+      </c>
+      <c r="C48" s="18" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="18" t="s">
+        <v>104</v>
+      </c>
+      <c r="E48" s="18" t="s">
+        <v>3</v>
+      </c>
+    </row>
     <row r="49" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B49" s="17" t="s">
-        <v>102</v>
-      </c>
-      <c r="C49" s="18" t="s">
-        <v>103</v>
-      </c>
-      <c r="D49" s="18" t="s">
-        <v>104</v>
-      </c>
-      <c r="E49" s="18" t="s">
-        <v>3</v>
-      </c>
+      <c r="B49" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="C49" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="D49" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="E49" s="1"/>
     </row>
     <row r="50" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B50" s="1" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="E50" s="1"/>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="C51" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="D51" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E51" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
@@ -2527,10 +2503,10 @@
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="C7" s="19" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="D7" s="19"/>
       <c r="E7" s="9"/>
@@ -2551,47 +2527,47 @@
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="D9" s="1"/>
       <c r="E9" s="1"/>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="E10" s="1"/>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="E12" s="1"/>
     </row>
@@ -2712,13 +2688,13 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.3">
       <c r="C5" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
     </row>
     <row r="6" spans="2:5" ht="8.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="7" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>166</v>
+        <v>162</v>
       </c>
       <c r="C7" s="10"/>
       <c r="D7" s="9"/>
@@ -2745,7 +2721,7 @@
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="C10" s="1" t="s">
         <v>41</v>
@@ -2755,19 +2731,19 @@
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B11" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="E11" s="1"/>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B12" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C12" s="1"/>
       <c r="D12" s="1"/>
@@ -2775,7 +2751,7 @@
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B13" s="1" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
       <c r="C13" s="1"/>
       <c r="D13" s="1"/>
@@ -2783,25 +2759,25 @@
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B14" s="1" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>147</v>
-      </c>
-      <c r="D14" s="1" t="s">
-        <v>151</v>
       </c>
       <c r="E14" s="1"/>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B15" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
       <c r="D15" s="1" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="E15" s="1"/>
     </row>
